--- a/weight_df_girl.xlsx
+++ b/weight_df_girl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,63 +520,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>bharani</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>83</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.5321</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.1751</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.15502</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12.627</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14.635</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16.643</v>
-      </c>
-      <c r="K2" t="n">
-        <v>19.106</v>
-      </c>
-      <c r="L2" t="n">
-        <v>22.175</v>
-      </c>
-      <c r="M2" t="n">
-        <v>26.069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.118</v>
-      </c>
-      <c r="O2" t="n">
-        <v>37.836</v>
-      </c>
-      <c r="P2" t="n">
-        <v>44.554</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.414929568235778</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/weight_df_girl.xlsx
+++ b/weight_df_girl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,63 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>bharani</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.5321</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22.1751</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.15502</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.627</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.635</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16.643</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.106</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22.175</v>
+      </c>
+      <c r="M2" t="n">
+        <v>26.069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.118</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.836</v>
+      </c>
+      <c r="P2" t="n">
+        <v>44.554</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.414929568235778</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
